--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Penk-Oprm1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Penk-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,19 +76,16 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>Penk</t>
+  </si>
+  <si>
+    <t>Oprm1</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Penk</t>
-  </si>
-  <si>
-    <t>Oprm1</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +516,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06362633333333333</v>
+        <v>35.85004166666667</v>
       </c>
       <c r="H2">
-        <v>0.190879</v>
+        <v>107.550125</v>
       </c>
       <c r="I2">
-        <v>0.00176891764840813</v>
+        <v>1</v>
       </c>
       <c r="J2">
-        <v>0.001768917648408131</v>
+        <v>1</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,10 +549,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>1.049158666666667</v>
+        <v>0.07215833333333334</v>
       </c>
       <c r="N2">
-        <v>3.147476</v>
+        <v>0.216475</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,140 +561,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.06675411904488887</v>
+        <v>2.586879256597223</v>
       </c>
       <c r="R2">
-        <v>0.6007870714039999</v>
+        <v>23.281913309375</v>
       </c>
       <c r="S2">
-        <v>0.00176891764840813</v>
+        <v>1</v>
       </c>
       <c r="T2">
-        <v>0.001768917648408131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>35.85004166666667</v>
-      </c>
-      <c r="H3">
-        <v>107.550125</v>
-      </c>
-      <c r="I3">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="J3">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M3">
-        <v>1.049158666666667</v>
-      </c>
-      <c r="N3">
-        <v>3.147476</v>
-      </c>
-      <c r="O3">
-        <v>1</v>
-      </c>
-      <c r="P3">
-        <v>1</v>
-      </c>
-      <c r="Q3">
-        <v>37.61238191494444</v>
-      </c>
-      <c r="R3">
-        <v>338.5114372345</v>
-      </c>
-      <c r="S3">
-        <v>0.9966906480073792</v>
-      </c>
-      <c r="T3">
-        <v>0.9966906480073792</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G4">
-        <v>0.05540800000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.166224</v>
-      </c>
-      <c r="I4">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="J4">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>1.049158666666667</v>
-      </c>
-      <c r="N4">
-        <v>3.147476</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.05813178340266667</v>
-      </c>
-      <c r="R4">
-        <v>0.523186050624</v>
-      </c>
-      <c r="S4">
-        <v>0.00154043434421279</v>
-      </c>
-      <c r="T4">
-        <v>0.00154043434421279</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
